--- a/DATA_LOGGER/stm32f446re_datalogger_pi/Core/Inc/data.xlsx
+++ b/DATA_LOGGER/stm32f446re_datalogger_pi/Core/Inc/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imasmm/Academic/STM32CubeIDE/workspace_1.8.0/stm32f446re_datalogger_pi/Core/Inc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imasmm/Academic/feb/FEB_Firmware_2023/CAN_Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440E99E5-BA74-AD42-912C-EE7AEE6700E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B29A7-1EC3-9942-B884-9B3C7624D83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>CAN ID Length</t>
   </si>
@@ -57,9 +57,6 @@
     <t>BMS</t>
   </si>
   <si>
-    <t>SM</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -87,21 +84,12 @@
     <t>Brake Pedal</t>
   </si>
   <si>
-    <t>BMS APPS</t>
-  </si>
-  <si>
-    <t>Command 1</t>
-  </si>
-  <si>
     <t>Emergency</t>
   </si>
   <si>
     <t>APPS_Emergency</t>
   </si>
   <si>
-    <t>SM_Emergency</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -204,13 +192,25 @@
     <t>SW</t>
   </si>
   <si>
-    <t>Driver Input</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>BMS SM APPS RMS SW</t>
+    <t>SW_Emergency</t>
+  </si>
+  <si>
+    <t>IVPDB</t>
+  </si>
+  <si>
+    <t>BMS SW</t>
+  </si>
+  <si>
+    <t>Ready_to_drive</t>
+  </si>
+  <si>
+    <t>Coolant_pump</t>
+  </si>
+  <si>
+    <t>Acumulator_fans</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -683,6 +683,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -728,7 +765,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,13 +796,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1122,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,10 +1198,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1168,195 +1211,220 @@
       <c r="B2" s="5">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12"/>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="10" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="10" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
+    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="E10" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>31</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="8"/>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E15" s="8"/>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1364,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8DC653-96F5-104F-BB32-C847D8C928AF}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A13" sqref="A13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,195 +1446,171 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DATA_LOGGER/stm32f446re_datalogger_pi/Core/Inc/data.xlsx
+++ b/DATA_LOGGER/stm32f446re_datalogger_pi/Core/Inc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imasmm/Academic/feb/FEB_Firmware_2023/CAN_Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B29A7-1EC3-9942-B884-9B3C7624D83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740BED82-BF48-DF4B-8DE2-E957C48216EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="110">
   <si>
     <t>CAN ID Length</t>
   </si>
@@ -69,9 +69,6 @@
     <t>APPS</t>
   </si>
   <si>
-    <t>RMS</t>
-  </si>
-  <si>
     <t>uint8_t</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>SW_Emergency</t>
   </si>
   <si>
-    <t>IVPDB</t>
-  </si>
-  <si>
     <t>BMS SW</t>
   </si>
   <si>
@@ -211,13 +205,172 @@
   </si>
   <si>
     <t>Extra</t>
+  </si>
+  <si>
+    <t>LVPDB</t>
+  </si>
+  <si>
+    <t>RMS_Temperature1</t>
+  </si>
+  <si>
+    <t>RMS_Temperature2</t>
+  </si>
+  <si>
+    <t>RMS_Temperature3</t>
+  </si>
+  <si>
+    <t>0x0A0</t>
+  </si>
+  <si>
+    <t>0x0A1</t>
+  </si>
+  <si>
+    <t>0x0A2</t>
+  </si>
+  <si>
+    <t>0x0A3</t>
+  </si>
+  <si>
+    <t>0x0A4</t>
+  </si>
+  <si>
+    <t>0x0A5</t>
+  </si>
+  <si>
+    <t>0x0A6</t>
+  </si>
+  <si>
+    <t>0x0A7</t>
+  </si>
+  <si>
+    <t>0x0A8</t>
+  </si>
+  <si>
+    <t>0x0A9</t>
+  </si>
+  <si>
+    <t>0x0AA</t>
+  </si>
+  <si>
+    <t>0x0AB</t>
+  </si>
+  <si>
+    <t>0x0AC</t>
+  </si>
+  <si>
+    <t>0x0AD</t>
+  </si>
+  <si>
+    <t>0x0AE</t>
+  </si>
+  <si>
+    <t>0x0AF</t>
+  </si>
+  <si>
+    <t>0x0B0</t>
+  </si>
+  <si>
+    <t>RMS_Analog_Input_Voltages</t>
+  </si>
+  <si>
+    <t>RMS_Digital_Input_Status</t>
+  </si>
+  <si>
+    <t>RMS_Motor_Position_Info</t>
+  </si>
+  <si>
+    <t>RMS_Current</t>
+  </si>
+  <si>
+    <t>RMS_Voltage</t>
+  </si>
+  <si>
+    <t>RMS_Flux</t>
+  </si>
+  <si>
+    <t>RMS_Internal_Votages</t>
+  </si>
+  <si>
+    <t>RMS_Internal_States</t>
+  </si>
+  <si>
+    <t>RMS_Fault_Coes</t>
+  </si>
+  <si>
+    <t>RMS_Torque_Timer</t>
+  </si>
+  <si>
+    <t>RMS_Modulation_Index_Flux_Weakening_Output</t>
+  </si>
+  <si>
+    <t>RMS_Firmware_Info</t>
+  </si>
+  <si>
+    <t>RMS_Diagnostic_Data</t>
+  </si>
+  <si>
+    <t>RMS_High_Speed_Msg</t>
+  </si>
+  <si>
+    <t>RMS_Cmd_Msg</t>
+  </si>
+  <si>
+    <t>0x0C0</t>
+  </si>
+  <si>
+    <t>RMS_Param_Cmd</t>
+  </si>
+  <si>
+    <t>RMS_Param_Response</t>
+  </si>
+  <si>
+    <t>0x0C1</t>
+  </si>
+  <si>
+    <t>0x0C2</t>
+  </si>
+  <si>
+    <t>RMS_OBD2_Query</t>
+  </si>
+  <si>
+    <t>RMS_OBD2_Respond</t>
+  </si>
+  <si>
+    <t>0x7DF</t>
+  </si>
+  <si>
+    <t>0x7E7</t>
+  </si>
+  <si>
+    <t>RMS_Orion_BMS</t>
+  </si>
+  <si>
+    <t>0x202</t>
+  </si>
+  <si>
+    <t>RMS_Debouce_Counter_Max_EEPROM</t>
+  </si>
+  <si>
+    <t>0x0EE</t>
+  </si>
+  <si>
+    <t>RMS_Debounce_Up_Count_EEPROM</t>
+  </si>
+  <si>
+    <t>0x0EF</t>
+  </si>
+  <si>
+    <t>RMS_Debounce_Down_Count_EEPROM</t>
+  </si>
+  <si>
+    <t>0x0F0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,6 +504,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -765,7 +930,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,11 +969,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1165,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,10 +1371,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1212,17 +1385,17 @@
         <v>7</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -1230,10 +1403,10 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7"/>
@@ -1243,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>7</v>
@@ -1252,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1270,52 +1443,52 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="7"/>
@@ -1325,16 +1498,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1342,7 +1515,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="11"/>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>8</v>
@@ -1354,7 +1527,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -1366,7 +1539,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
       <c r="E13" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>8</v>
@@ -1376,44 +1549,28 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1432,187 +1589,552 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8DC653-96F5-104F-BB32-C847D8C928AF}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="183" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DATA_LOGGER/stm32f446re_datalogger_pi/Core/Inc/data.xlsx
+++ b/DATA_LOGGER/stm32f446re_datalogger_pi/Core/Inc/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imasmm/Academic/STM32CubeIDE/workspace_1.8.0/stm32f446re_datalogger_pi/Core/Inc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imasmm/Academic/feb/FEB_Firmware_2023/CAN_Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440E99E5-BA74-AD42-912C-EE7AEE6700E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740BED82-BF48-DF4B-8DE2-E957C48216EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="110">
   <si>
     <t>CAN ID Length</t>
   </si>
@@ -57,9 +57,6 @@
     <t>BMS</t>
   </si>
   <si>
-    <t>SM</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>APPS</t>
   </si>
   <si>
-    <t>RMS</t>
-  </si>
-  <si>
     <t>uint8_t</t>
   </si>
   <si>
@@ -87,21 +81,12 @@
     <t>Brake Pedal</t>
   </si>
   <si>
-    <t>BMS APPS</t>
-  </si>
-  <si>
-    <t>Command 1</t>
-  </si>
-  <si>
     <t>Emergency</t>
   </si>
   <si>
     <t>APPS_Emergency</t>
   </si>
   <si>
-    <t>SM_Emergency</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -204,20 +189,188 @@
     <t>SW</t>
   </si>
   <si>
-    <t>Driver Input</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>BMS SM APPS RMS SW</t>
+    <t>SW_Emergency</t>
+  </si>
+  <si>
+    <t>BMS SW</t>
+  </si>
+  <si>
+    <t>Ready_to_drive</t>
+  </si>
+  <si>
+    <t>Coolant_pump</t>
+  </si>
+  <si>
+    <t>Acumulator_fans</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>LVPDB</t>
+  </si>
+  <si>
+    <t>RMS_Temperature1</t>
+  </si>
+  <si>
+    <t>RMS_Temperature2</t>
+  </si>
+  <si>
+    <t>RMS_Temperature3</t>
+  </si>
+  <si>
+    <t>0x0A0</t>
+  </si>
+  <si>
+    <t>0x0A1</t>
+  </si>
+  <si>
+    <t>0x0A2</t>
+  </si>
+  <si>
+    <t>0x0A3</t>
+  </si>
+  <si>
+    <t>0x0A4</t>
+  </si>
+  <si>
+    <t>0x0A5</t>
+  </si>
+  <si>
+    <t>0x0A6</t>
+  </si>
+  <si>
+    <t>0x0A7</t>
+  </si>
+  <si>
+    <t>0x0A8</t>
+  </si>
+  <si>
+    <t>0x0A9</t>
+  </si>
+  <si>
+    <t>0x0AA</t>
+  </si>
+  <si>
+    <t>0x0AB</t>
+  </si>
+  <si>
+    <t>0x0AC</t>
+  </si>
+  <si>
+    <t>0x0AD</t>
+  </si>
+  <si>
+    <t>0x0AE</t>
+  </si>
+  <si>
+    <t>0x0AF</t>
+  </si>
+  <si>
+    <t>0x0B0</t>
+  </si>
+  <si>
+    <t>RMS_Analog_Input_Voltages</t>
+  </si>
+  <si>
+    <t>RMS_Digital_Input_Status</t>
+  </si>
+  <si>
+    <t>RMS_Motor_Position_Info</t>
+  </si>
+  <si>
+    <t>RMS_Current</t>
+  </si>
+  <si>
+    <t>RMS_Voltage</t>
+  </si>
+  <si>
+    <t>RMS_Flux</t>
+  </si>
+  <si>
+    <t>RMS_Internal_Votages</t>
+  </si>
+  <si>
+    <t>RMS_Internal_States</t>
+  </si>
+  <si>
+    <t>RMS_Fault_Coes</t>
+  </si>
+  <si>
+    <t>RMS_Torque_Timer</t>
+  </si>
+  <si>
+    <t>RMS_Modulation_Index_Flux_Weakening_Output</t>
+  </si>
+  <si>
+    <t>RMS_Firmware_Info</t>
+  </si>
+  <si>
+    <t>RMS_Diagnostic_Data</t>
+  </si>
+  <si>
+    <t>RMS_High_Speed_Msg</t>
+  </si>
+  <si>
+    <t>RMS_Cmd_Msg</t>
+  </si>
+  <si>
+    <t>0x0C0</t>
+  </si>
+  <si>
+    <t>RMS_Param_Cmd</t>
+  </si>
+  <si>
+    <t>RMS_Param_Response</t>
+  </si>
+  <si>
+    <t>0x0C1</t>
+  </si>
+  <si>
+    <t>0x0C2</t>
+  </si>
+  <si>
+    <t>RMS_OBD2_Query</t>
+  </si>
+  <si>
+    <t>RMS_OBD2_Respond</t>
+  </si>
+  <si>
+    <t>0x7DF</t>
+  </si>
+  <si>
+    <t>0x7E7</t>
+  </si>
+  <si>
+    <t>RMS_Orion_BMS</t>
+  </si>
+  <si>
+    <t>0x202</t>
+  </si>
+  <si>
+    <t>RMS_Debouce_Counter_Max_EEPROM</t>
+  </si>
+  <si>
+    <t>0x0EE</t>
+  </si>
+  <si>
+    <t>RMS_Debounce_Up_Count_EEPROM</t>
+  </si>
+  <si>
+    <t>0x0EF</t>
+  </si>
+  <si>
+    <t>RMS_Debounce_Down_Count_EEPROM</t>
+  </si>
+  <si>
+    <t>0x0F0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,6 +505,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -540,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -683,6 +848,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -728,7 +930,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,13 +961,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1122,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,10 +1371,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1168,195 +1384,204 @@
       <c r="B2" s="5">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12"/>
+      <c r="C2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="10" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="10" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
+    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="E10" s="10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="8"/>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E15" s="8"/>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1364,211 +1589,552 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8DC653-96F5-104F-BB32-C847D8C928AF}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="183" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>